--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.0.xlsx
@@ -43,48 +43,51 @@
     <t>שלום, היי</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>נעים מאוד</t>
+  </si>
+  <si>
+    <t>מה קורה?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>בסדר</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>מה, מה אני יעל</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>יעל, אהלן יעל</t>
+  </si>
+  <si>
+    <t>היי אתם משחררים אותו</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>אנחנו פה כבר די הרבה זמן</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>וקדימה</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>נעים מאוד</t>
-  </si>
-  <si>
-    <t>מה קורה?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>בסדר</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>מה, מה אני יעל</t>
-  </si>
-  <si>
-    <t>יעל, אהלן יעל</t>
-  </si>
-  <si>
-    <t>היי אתם משחררים אותו</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>אנחנו פה כבר די הרבה זמן</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>וקדימה</t>
-  </si>
-  <si>
     <t>צחוק</t>
   </si>
   <si>
@@ -109,15 +112,15 @@
     <t>ושחררו אותנו לדרכנו בבקשה</t>
   </si>
   <si>
-    <t>disagree</t>
-  </si>
-  <si>
     <t>יעל קודם כל לי קוראים דוק</t>
   </si>
   <si>
     <t>אני רופא כאן במחלקה</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>חלק מהצוות שמטפלים בבן שלך ביואב</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>קצת זה בסדר זה קורה</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>אני יודעת פשוט אתה יודע</t>
   </si>
   <si>
@@ -241,9 +247,6 @@
     <t>יש לו סכרת, כן</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t xml:space="preserve">זה מחלה לא פשוטה אבל יש לה טיפול </t>
   </si>
   <si>
@@ -302,9 +305,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -861,35 +861,35 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -931,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -984,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1009,24 +1009,24 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1085,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1099,10 +1099,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1130,18 +1130,18 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1149,63 +1149,63 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
         <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1331,35 +1331,35 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1368,18 +1368,18 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1396,12 +1396,12 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1410,12 +1410,12 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1424,12 +1424,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1438,32 +1438,32 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1480,26 +1480,26 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1508,88 +1508,88 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1597,21 +1597,21 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1620,26 +1620,26 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1648,32 +1648,32 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
         <v>82</v>
       </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1718,32 +1718,32 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1751,21 +1751,21 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1774,88 +1774,88 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1866,10 +1866,10 @@
         <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1894,13 +1894,13 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1928,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1998,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2062,10 +2062,10 @@
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2076,13 +2076,13 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2090,10 +2090,10 @@
         <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2104,13 +2104,13 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2121,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2135,10 +2135,10 @@
         <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2146,7 +2146,7 @@
         <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
         <v>21</v>
@@ -2160,7 +2160,7 @@
         <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
         <v>21</v>
@@ -2174,13 +2174,13 @@
         <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2205,10 +2205,10 @@
         <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2219,10 +2219,10 @@
         <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2233,10 +2233,10 @@
         <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2244,10 +2244,10 @@
         <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2258,13 +2258,13 @@
         <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2272,7 +2272,7 @@
         <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
@@ -2286,13 +2286,13 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2317,7 +2317,7 @@
         <v>134</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2328,13 +2328,13 @@
         <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2370,10 +2370,10 @@
         <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2390,7 +2390,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2404,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2412,10 +2412,10 @@
         <v>141</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2432,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2440,10 +2440,10 @@
         <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2457,10 +2457,10 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2468,7 +2468,7 @@
         <v>144</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
@@ -2485,10 +2485,10 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2558,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2583,10 +2583,10 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2594,10 +2594,10 @@
         <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2608,13 +2608,13 @@
         <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -2636,13 +2636,13 @@
         <v>156</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
